--- a/biology/Botanique/Saule_glauque/Saule_glauque.xlsx
+++ b/biology/Botanique/Saule_glauque/Saule_glauque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix glauca, le saule glauque, est une espèce de plantes à fleurs de la famille des Salicaceae. Ce saule pousse dans l'hémisphère Nord (nord de l'Eurasie et Amérique du Nord). Il se présente sous la forme d'un arbrisseau ou d'un très petit arbuste aux feuilles velues.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Saule glauque atteint une taille d'1 m de haut. Ses branches sont rousses, glabres et soyeuses. Les feuilles sont oblongues,  ovales avec des stipules et mesurent de 3 à 5 × 1 à 2,5 cm, de couleur gris bleu. Une floraison cotoneuse ou serotineuse intervient sous forme de chatons de  2 à 4 cm. Le pédoncule porte de longues bractées obovales. La fleur mâle porte deux étamines. La floraison intervient en juin-juillet.
 Chromosomie :  2n = 76, 96, 114, 144, 152.
@@ -544,15 +558,17 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (8 déc. 2012)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (8 déc. 2012) :
 variété Salix glauca var. acutifolia
 variété Salix glauca var. callicarpaea
 variété Salix glauca var. glauca
 variété Salix glauca var. stipulata
 variété Salix glauca var. villosa
-Selon NCBI  (8 déc. 2012)[2] :
+Selon NCBI  (8 déc. 2012) :
 sous-espèce Salix glauca subsp. callicarpaea
 sous-espèce Salix glauca subsp. glauca
 variété Salix glauca var. acutifolia
